--- a/model_evaluation/test_evaluation/data_completeness_report_20250820_171756.xlsx
+++ b/model_evaluation/test_evaluation/data_completeness_report_20250820_171756.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Wohlfarth\LRZ Sync+Share\MSc_DL_Segmentation_Perfusion (Vincent Wohlfarth)\06 Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A64974-9453-4E1F-AFD2-7906CEF1E0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AB0A2D-4B39-4993-AE15-AA29911CBB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16305" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Completeness" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="74">
   <si>
     <t>Group</t>
   </si>
@@ -239,13 +240,22 @@
     <t>ssRICA segmentation unfeasible</t>
   </si>
   <si>
-    <t>AVM/Stenose</t>
-  </si>
-  <si>
     <t>left</t>
   </si>
   <si>
     <t>right</t>
+  </si>
+  <si>
+    <t>ICAS</t>
+  </si>
+  <si>
+    <t>AVM/ICAS</t>
+  </si>
+  <si>
+    <t>AVM/ICAS side</t>
+  </si>
+  <si>
+    <t>AVM</t>
   </si>
 </sst>
 </file>
@@ -727,11 +737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S51" sqref="S51"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q72" sqref="Q72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,14 +761,14 @@
     <col min="13" max="13" width="14.5546875" style="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="55.77734375" customWidth="1"/>
     <col min="15" max="15" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="15.5546875" customWidth="1"/>
+    <col min="18" max="18" width="17.44140625" customWidth="1"/>
+    <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -808,13 +818,16 @@
         <v>50</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -860,11 +873,11 @@
       <c r="P2" t="s">
         <v>51</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -910,11 +923,11 @@
       <c r="P3" t="s">
         <v>51</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -960,11 +973,11 @@
       <c r="P4" t="s">
         <v>51</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1010,11 +1023,11 @@
       <c r="P5" t="s">
         <v>51</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1060,11 +1073,11 @@
       <c r="P6" t="s">
         <v>51</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1110,11 +1123,11 @@
       <c r="P7" t="s">
         <v>51</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1160,11 +1173,11 @@
       <c r="P8" t="s">
         <v>51</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1210,11 +1223,11 @@
       <c r="P9" t="s">
         <v>51</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1260,11 +1273,11 @@
       <c r="P10" t="s">
         <v>51</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1310,11 +1323,11 @@
       <c r="P11" t="s">
         <v>51</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1360,11 +1373,11 @@
       <c r="P12" t="s">
         <v>51</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1410,11 +1423,11 @@
       <c r="P13" t="s">
         <v>51</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1460,11 +1473,11 @@
       <c r="P14" t="s">
         <v>51</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1510,11 +1523,11 @@
       <c r="P15" t="s">
         <v>51</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1560,11 +1573,11 @@
       <c r="P16" t="s">
         <v>51</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1610,11 +1623,11 @@
       <c r="P17" t="s">
         <v>51</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1660,11 +1673,11 @@
       <c r="P18" t="s">
         <v>51</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1710,11 +1723,11 @@
       <c r="P19" t="s">
         <v>51</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1760,11 +1773,11 @@
       <c r="P20" t="s">
         <v>51</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1811,7 +1824,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1857,11 +1870,11 @@
       <c r="P22" t="s">
         <v>51</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1907,11 +1920,11 @@
       <c r="P23" t="s">
         <v>51</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1957,11 +1970,11 @@
       <c r="P24" t="s">
         <v>51</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2007,11 +2020,11 @@
       <c r="P25" t="s">
         <v>51</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2057,11 +2070,11 @@
       <c r="P26" t="s">
         <v>51</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -2107,11 +2120,11 @@
       <c r="P27" t="s">
         <v>51</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -2157,11 +2170,11 @@
       <c r="P28" t="s">
         <v>51</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2207,11 +2220,11 @@
       <c r="P29" t="s">
         <v>51</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -2257,11 +2270,11 @@
       <c r="P30" t="s">
         <v>51</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2307,11 +2320,11 @@
       <c r="P31" t="s">
         <v>51</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2357,11 +2370,11 @@
       <c r="P32" t="s">
         <v>51</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -2407,11 +2420,11 @@
       <c r="P33" t="s">
         <v>51</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -2457,11 +2470,11 @@
       <c r="P34" t="s">
         <v>51</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2507,11 +2520,11 @@
       <c r="P35" t="s">
         <v>51</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2557,11 +2570,11 @@
       <c r="P36" t="s">
         <v>51</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2607,11 +2620,11 @@
       <c r="P37" t="s">
         <v>51</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2657,11 +2670,11 @@
       <c r="P38" t="s">
         <v>51</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2707,11 +2720,11 @@
       <c r="P39" t="s">
         <v>51</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -2757,17 +2770,17 @@
       <c r="P40" t="s">
         <v>51</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>61</v>
       </c>
-      <c r="S40" s="19" t="s">
+      <c r="T40" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="T40" s="19" t="s">
+      <c r="U40" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -2813,16 +2826,16 @@
       <c r="P41" t="s">
         <v>53</v>
       </c>
-      <c r="S41">
-        <f>COUNTIF(R2:R40,"*ssLICA*")</f>
+      <c r="T41">
+        <f>COUNTIF(S2:S40,"*ssLICA*")</f>
         <v>19</v>
       </c>
-      <c r="T41">
-        <f>COUNTIF(R2:R40,"*ssRICA*")</f>
+      <c r="U41">
+        <f>COUNTIF(S2:S40,"*ssRICA*")</f>
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -2869,7 +2882,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -2916,7 +2929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -2963,7 +2976,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3009,17 +3022,17 @@
       <c r="P45" t="s">
         <v>53</v>
       </c>
-      <c r="R45" s="19" t="s">
+      <c r="S45" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="S45" s="19" t="s">
+      <c r="T45" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="T45" s="19" t="s">
+      <c r="U45" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -3068,20 +3081,20 @@
       <c r="P46" t="s">
         <v>53</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <f>COUNTIF(P2:P62,"*Training/Validation*")</f>
         <v>39</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <f>COUNTIF(P2:P46, "*Testing*")</f>
         <v>6</v>
       </c>
-      <c r="T46">
-        <f>SUM(R46:S46)</f>
+      <c r="U46">
+        <f>SUM(S46:T46)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>34</v>
       </c>
@@ -3128,10 +3141,13 @@
         <v>52</v>
       </c>
       <c r="Q47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R47" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -3178,10 +3194,13 @@
         <v>52</v>
       </c>
       <c r="Q48" t="s">
+        <v>73</v>
+      </c>
+      <c r="R48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -3228,10 +3247,13 @@
         <v>53</v>
       </c>
       <c r="Q49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="R49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -3278,10 +3300,13 @@
         <v>53</v>
       </c>
       <c r="Q50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="R50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -3328,10 +3353,13 @@
         <v>53</v>
       </c>
       <c r="Q51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="R51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -3378,10 +3406,13 @@
         <v>53</v>
       </c>
       <c r="Q52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="R52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -3428,10 +3459,13 @@
         <v>53</v>
       </c>
       <c r="Q53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="R53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -3478,10 +3512,13 @@
         <v>53</v>
       </c>
       <c r="Q54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="R54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -3530,8 +3567,11 @@
       <c r="Q55" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -3580,8 +3620,11 @@
       <c r="Q56" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -3628,10 +3671,13 @@
         <v>52</v>
       </c>
       <c r="Q57" t="s">
+        <v>73</v>
+      </c>
+      <c r="R57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -3678,10 +3724,13 @@
         <v>52</v>
       </c>
       <c r="Q58" t="s">
+        <v>73</v>
+      </c>
+      <c r="R58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -3731,10 +3780,13 @@
         <v>53</v>
       </c>
       <c r="Q59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="R59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -3784,10 +3836,13 @@
         <v>53</v>
       </c>
       <c r="Q60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="R60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -3837,19 +3892,22 @@
         <v>53</v>
       </c>
       <c r="Q61" t="s">
-        <v>69</v>
-      </c>
-      <c r="R61" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="R61" t="s">
+        <v>68</v>
+      </c>
+      <c r="S61" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="S61" s="19" t="s">
+      <c r="T61" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="T61" s="19" t="s">
+      <c r="U61" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -3899,18 +3957,21 @@
         <v>53</v>
       </c>
       <c r="Q62" t="s">
-        <v>69</v>
-      </c>
-      <c r="R62">
+        <v>70</v>
+      </c>
+      <c r="R62" t="s">
+        <v>68</v>
+      </c>
+      <c r="S62">
         <f>COUNTIF(P47:P62,"*Training/Validation*")</f>
         <v>0</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <f>COUNTIF(P47:P62, "*Testing*")</f>
         <v>12</v>
       </c>
-      <c r="T62">
-        <f>SUM(R62:S62)</f>
+      <c r="U62">
+        <f>SUM(S62:T62)</f>
         <v>12</v>
       </c>
     </row>
